--- a/docs/STAFF-DATA/004.xlsx
+++ b/docs/STAFF-DATA/004.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E0CED9-4276-448A-A615-71FD5D46298A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -52,10 +46,13 @@
     <t>unique_id</t>
   </si>
   <si>
+    <t xml:space="preserve">Dr.A.Jebamalar </t>
+  </si>
+  <si>
     <t>Professor &amp; Head</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/004/VEC-004-01-145.jpg</t>
+    <t>/static/images/profile_photos/004/VEC-004-01-145.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;user=zMX3IjQAAAAJ</t>
@@ -64,6 +61,9 @@
     <t>--</t>
   </si>
   <si>
+    <t>https://orcid.org/0009-0004-5955-1306</t>
+  </si>
+  <si>
     <t>---</t>
   </si>
   <si>
@@ -76,10 +76,13 @@
     <t>VEC-004-01-145</t>
   </si>
   <si>
+    <t>Dr.R.SUDHARSANAN</t>
+  </si>
+  <si>
     <t>Associate Professor</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/004/VEC-004-03-093.jpg</t>
+    <t>/static/images/profile_photos/004/VEC-004-03-093.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=kavcGbYAAAAJ&amp;hl=en&amp;authuser=4</t>
@@ -100,16 +103,34 @@
     <t>VEC-004-03-093</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/004/VEC-004-03-082.jpg</t>
+    <t>Dr.T.REVATHEE</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/004/VEC-004-03-082.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en?authuser%3D&amp;authuser=1&amp;user=4iGLe88AAAAJ</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Revathee-Thothathri?ev=hdr_xprf</t>
+  </si>
+  <si>
+    <t>https://orcid.org/my-orcid?orcid=0009-0005-4891-8229</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dr-revathee-thothathri-86129057/</t>
   </si>
   <si>
     <t>VEC-004-03-082</t>
   </si>
   <si>
+    <t xml:space="preserve">Mr.T.A.RajhaRajeswaran  </t>
+  </si>
+  <si>
     <t>Assistant Professor</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/004/VEC-004-04-066.jpg</t>
+    <t>/static/images/profile_photos/004/VEC-004-04-066.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;user=z1BuZYcAAAAJ</t>
@@ -124,7 +145,13 @@
     <t>VEC-004-04-066</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/004/VEC-004-04-064.jpg</t>
+    <t xml:space="preserve">Mr.M.ThillaiBackiam  </t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/004/VEC-004-04-064.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;view_op=list_works&amp;gmla=ALUCkoXMiyFoOHY-oSmkwOGN4dyV3FrcZO4tl7op9Ljq-P7pL6iCLBnW3Z2Q4_ahLSu8-</t>
   </si>
   <si>
     <t>https://www.researchgate.net/?_tp=eyJjb250ZXh0Ijp7ImZpcnN0UGFnZSI6ImxvZ2luIiwicGFnZSI6ImxvZ2luIn19</t>
@@ -136,7 +163,13 @@
     <t>VEC-004-04-064</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/004/VEC-004-04-070.jpg</t>
+    <t xml:space="preserve">Mr. S.GOPINATH  </t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/004/VEC-004-04-070.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;view_op=list_works&amp;gmla=ALUCkoWRiJG96gXC-1I4xAEBjfrAGcOjmEE5O8YwipOj-GDcbpKpLcK4qYn97vSs8zU-</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/gopinath-selvaraj-7510a7120/</t>
@@ -145,7 +178,10 @@
     <t>VEC-004-04-070</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/004/VEC-004-04-061.jpg</t>
+    <t xml:space="preserve">Mr. K. RAJENDHIRAN  </t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/004/VEC-004-04-061.webp</t>
   </si>
   <si>
     <t>NIL</t>
@@ -160,7 +196,10 @@
     <t>VEC-004-04-061</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/004/VEC-004-04-073.jpg</t>
+    <t xml:space="preserve">Mr. G. RAJASEKAR  </t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/004/VEC-004-04-073.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;user=faR6u3kAAAAJ&amp;gmla=ALUCkoVkPAxOsBHpg4cCVzWObCOEQ5hbm_o9JoKjBSED0ga-bsdtimOOkRubIe0o8Jde8vG3Mfhnff50Co6jgAk76RN5ECufXoFHkk_KfPDCDgMQWg</t>
@@ -170,57 +209,13 @@
   </si>
   <si>
     <t>VEC-004-04-073</t>
-  </si>
-  <si>
-    <t>Dr.T.REVATHEE</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?hl=en?authuser%3D&amp;authuser=1&amp;user=4iGLe88AAAAJ</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Revathee-Thothathri?ev=hdr_xprf</t>
-  </si>
-  <si>
-    <t>https://orcid.org/my-orcid?orcid=0009-0005-4891-8229</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/dr-revathee-thothathri-86129057/</t>
-  </si>
-  <si>
-    <t>Dr.R.SUDHARSANAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr.T.A.RajhaRajeswaran  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr.M.ThillaiBackiam  </t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?hl=en&amp;view_op=list_works&amp;gmla=ALUCkoXMiyFoOHY-oSmkwOGN4dyV3FrcZO4tl7op9Ljq-P7pL6iCLBnW3Z2Q4_ahLSu8-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. S.GOPINATH  </t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?hl=en&amp;view_op=list_works&amp;gmla=ALUCkoWRiJG96gXC-1I4xAEBjfrAGcOjmEE5O8YwipOj-GDcbpKpLcK4qYn97vSs8zU-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. K. RAJENDHIRAN  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. G. RAJASEKAR  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr.A.Jebamalar </t>
-  </si>
-  <si>
-    <t>https://orcid.org/0009-0004-5955-1306</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,15 +227,16 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -251,7 +247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -261,43 +257,53 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="5">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -308,10 +314,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -349,69 +355,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,54 +443,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -492,7 +499,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -501,7 +508,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -510,7 +517,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -518,10 +525,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -550,7 +557,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -563,13 +570,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -587,26 +593,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" style="4" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="53.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="26.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,214 +647,223 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{01EA22F6-F18F-4535-A642-9F70A171CF26}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{4B84F5C2-CE55-49C4-9DE1-F0C4BCBB5D01}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{A38911B4-CE40-468E-B72D-11E8E0EC627E}"/>
-    <hyperlink ref="I4" r:id="rId4" xr:uid="{2A1B6012-8E4C-403C-BBC6-79E6256536DA}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{4EAE266D-B661-4FBE-B695-AF446B090960}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{77236FEF-9CE5-4919-8C59-41D837FD45CF}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{BCBB5B6D-D3F1-44C4-8C86-5DA0BCE8593F}"/>
-    <hyperlink ref="D2" r:id="rId8" xr:uid="{51C17E79-486E-4A3C-83A2-53BE991F07EB}"/>
-    <hyperlink ref="F2" r:id="rId9" xr:uid="{36A44601-0F70-4289-A663-98C37FEBDD47}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/STAFF-DATA/004.xlsx
+++ b/docs/STAFF-DATA/004.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranesh\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1E33964-0207-4565-9AC1-5004B0932E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -46,9 +52,6 @@
     <t>unique_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Dr.A.Jebamalar </t>
-  </si>
-  <si>
     <t>Professor &amp; Head</t>
   </si>
   <si>
@@ -76,9 +79,6 @@
     <t>VEC-004-01-145</t>
   </si>
   <si>
-    <t>Dr.R.SUDHARSANAN</t>
-  </si>
-  <si>
     <t>Associate Professor</t>
   </si>
   <si>
@@ -103,9 +103,6 @@
     <t>VEC-004-03-093</t>
   </si>
   <si>
-    <t>Dr.T.REVATHEE</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/004/VEC-004-03-082.webp</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>VEC-004-03-082</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr.T.A.RajhaRajeswaran  </t>
-  </si>
-  <si>
     <t>Assistant Professor</t>
   </si>
   <si>
@@ -145,27 +139,6 @@
     <t>VEC-004-04-066</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr.M.ThillaiBackiam  </t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/004/VEC-004-04-064.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?hl=en&amp;view_op=list_works&amp;gmla=ALUCkoXMiyFoOHY-oSmkwOGN4dyV3FrcZO4tl7op9Ljq-P7pL6iCLBnW3Z2Q4_ahLSu8-</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/?_tp=eyJjb250ZXh0Ijp7ImZpcnN0UGFnZSI6ImxvZ2luIiwicGFnZSI6ImxvZ2luIn19</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/thillai-backiam-murugesan-23b062204/</t>
-  </si>
-  <si>
-    <t>VEC-004-04-064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. S.GOPINATH  </t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/004/VEC-004-04-070.webp</t>
   </si>
   <si>
@@ -178,9 +151,6 @@
     <t>VEC-004-04-070</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. K. RAJENDHIRAN  </t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/004/VEC-004-04-061.webp</t>
   </si>
   <si>
@@ -196,9 +166,6 @@
     <t>VEC-004-04-061</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. G. RAJASEKAR  </t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/004/VEC-004-04-073.webp</t>
   </si>
   <si>
@@ -209,13 +176,39 @@
   </si>
   <si>
     <t>VEC-004-04-073</t>
+  </si>
+  <si>
+    <t>Dr. JEBAMALAR A</t>
+  </si>
+  <si>
+    <t>Dr. SUDHARSANAN R</t>
+  </si>
+  <si>
+    <t>Dr. REVATHEE T</t>
+  </si>
+  <si>
+    <t>Mr. RAJHARASEHWARAN T A</t>
+  </si>
+  <si>
+    <t>Mr. GOPINATH S</t>
+  </si>
+  <si>
+    <t>Mr. RAJENDHIRAN K</t>
+  </si>
+  <si>
+    <t>Mr. RAJASEKAR G</t>
+  </si>
+  <si>
+    <t>SUREKHA A</t>
+  </si>
+  <si>
+    <t>Teaching Assistant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,29 +274,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -314,10 +304,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -355,71 +345,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,7 +437,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -470,11 +460,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -483,13 +473,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -499,7 +489,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -508,7 +498,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -517,7 +507,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -525,10 +515,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -593,29 +583,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="53.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,221 +639,189 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="J5" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="3" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
+      <c r="I6" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D7" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E7" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="I7" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+      <c r="J7" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="2" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="2" t="s">
+      <c r="D8" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="I8" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="J8" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2" t="s">
+      <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>64</v>
-      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/STAFF-DATA/004.xlsx
+++ b/docs/STAFF-DATA/004.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranesh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1E33964-0207-4565-9AC1-5004B0932E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -197,18 +196,12 @@
   </si>
   <si>
     <t>Mr. RAJASEKAR G</t>
-  </si>
-  <si>
-    <t>SUREKHA A</t>
-  </si>
-  <si>
-    <t>Teaching Assistant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,14 +576,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,14 +805,6 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
     </row>

--- a/docs/STAFF-DATA/004.xlsx
+++ b/docs/STAFF-DATA/004.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB73E28-43C8-4A51-A6CA-4F19208FA11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -196,12 +197,39 @@
   </si>
   <si>
     <t>Mr. RAJASEKAR G</t>
+  </si>
+  <si>
+    <t>FRIEDA F S</t>
+  </si>
+  <si>
+    <t>PAVEENA A</t>
+  </si>
+  <si>
+    <t>SELVAPRASANTH P</t>
+  </si>
+  <si>
+    <t>VEC-004-04-601</t>
+  </si>
+  <si>
+    <t>VEC-004-04-602</t>
+  </si>
+  <si>
+    <t>VEC-004-04-603</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/004/VEC-004-04-601.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/004/VEC-004-04-602.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/004/VEC-004-04-603.webp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,14 +604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,6 +833,48 @@
         <v>51</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
     </row>

--- a/docs/STAFF-DATA/004.xlsx
+++ b/docs/STAFF-DATA/004.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB73E28-43C8-4A51-A6CA-4F19208FA11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCE60FE-F2C2-46A1-A098-7AC8999A849C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,15 +199,6 @@
     <t>Mr. RAJASEKAR G</t>
   </si>
   <si>
-    <t>FRIEDA F S</t>
-  </si>
-  <si>
-    <t>PAVEENA A</t>
-  </si>
-  <si>
-    <t>SELVAPRASANTH P</t>
-  </si>
-  <si>
     <t>VEC-004-04-601</t>
   </si>
   <si>
@@ -224,6 +215,15 @@
   </si>
   <si>
     <t>/static/images/profile_photos/004/VEC-004-04-603.webp</t>
+  </si>
+  <si>
+    <t>Mrs. FRIEDA F S</t>
+  </si>
+  <si>
+    <t>Mrs. PAVEENA A</t>
+  </si>
+  <si>
+    <t>Mr. SELVAPRASANTH P</t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,44 +835,44 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/docs/STAFF-DATA/004.xlsx
+++ b/docs/STAFF-DATA/004.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCE60FE-F2C2-46A1-A098-7AC8999A849C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E128E40-EAF1-41FA-B5AC-F607C30F1ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15036" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -82,27 +82,6 @@
     <t>Associate Professor</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/004/VEC-004-03-093.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=kavcGbYAAAAJ&amp;hl=en&amp;authuser=4</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/R-Sudharsanan</t>
-  </si>
-  <si>
-    <t>https://orcid.org/my-orcid?orcid=0000-0003-1134-5138</t>
-  </si>
-  <si>
-    <t>https://www.scopus.com/authid/detail.uri?authorId=57197509990</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sudharsanan-rajagopalan-44549011/</t>
-  </si>
-  <si>
-    <t>VEC-004-03-093</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/004/VEC-004-03-082.webp</t>
   </si>
   <si>
@@ -179,9 +158,6 @@
   </si>
   <si>
     <t>Dr. JEBAMALAR A</t>
-  </si>
-  <si>
-    <t>Dr. SUDHARSANAN R</t>
   </si>
   <si>
     <t>Dr. REVATHEE T</t>
@@ -608,10 +584,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,7 +638,7 @@
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -692,9 +668,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -702,132 +678,117 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="J6" t="s">
         <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>57</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s">
         <v>51</v>
@@ -835,48 +796,34 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/STAFF-DATA/004.xlsx
+++ b/docs/STAFF-DATA/004.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E128E40-EAF1-41FA-B5AC-F607C30F1ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15036" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -118,18 +117,6 @@
     <t>VEC-004-04-066</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/004/VEC-004-04-070.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?hl=en&amp;view_op=list_works&amp;gmla=ALUCkoWRiJG96gXC-1I4xAEBjfrAGcOjmEE5O8YwipOj-GDcbpKpLcK4qYn97vSs8zU-</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/gopinath-selvaraj-7510a7120/</t>
-  </si>
-  <si>
-    <t>VEC-004-04-070</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/004/VEC-004-04-061.webp</t>
   </si>
   <si>
@@ -145,18 +132,6 @@
     <t>VEC-004-04-061</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/004/VEC-004-04-073.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;user=faR6u3kAAAAJ&amp;gmla=ALUCkoVkPAxOsBHpg4cCVzWObCOEQ5hbm_o9JoKjBSED0ga-bsdtimOOkRubIe0o8Jde8vG3Mfhnff50Co6jgAk76RN5ECufXoFHkk_KfPDCDgMQWg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/me?trk=p_mwlite_profile_view-secondary_nav</t>
-  </si>
-  <si>
-    <t>VEC-004-04-073</t>
-  </si>
-  <si>
     <t>Dr. JEBAMALAR A</t>
   </si>
   <si>
@@ -166,13 +141,7 @@
     <t>Mr. RAJHARASEHWARAN T A</t>
   </si>
   <si>
-    <t>Mr. GOPINATH S</t>
-  </si>
-  <si>
     <t>Mr. RAJENDHIRAN K</t>
-  </si>
-  <si>
-    <t>Mr. RAJASEKAR G</t>
   </si>
   <si>
     <t>VEC-004-04-601</t>
@@ -205,7 +174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,14 +549,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,7 +607,7 @@
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -670,7 +639,7 @@
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -696,7 +665,7 @@
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -717,9 +686,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -727,101 +696,65 @@
       <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
         <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" t="s">
-        <v>53</v>
-      </c>
-    </row>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
     </row>
